--- a/asset/集成电路设计和工业互联网平台业务量月报表_template.xlsx
+++ b/asset/集成电路设计和工业互联网平台业务量月报表_template.xlsx
@@ -261,7 +261,7 @@
     <t>2.去年同期数仅由新增单位填写。</t>
   </si>
   <si>
-    <t>SE308_2021_00485482D57AAA8E62A9AA7BD6B9DA87</t>
+    <t>SE308_2021_878E40E4C3C694900C6749C1EBD37AF7</t>
   </si>
 </sst>
 </file>
